--- a/natmiOut/OldD4/LR-pairs_lrc2p/Anpep-Sele.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Anpep-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,57 +534,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.2885342666147</v>
+        <v>5.880375333333333</v>
       </c>
       <c r="H2">
-        <v>4.2885342666147</v>
+        <v>17.641126</v>
       </c>
       <c r="I2">
-        <v>0.02006480666805337</v>
+        <v>0.02508458002889762</v>
       </c>
       <c r="J2">
-        <v>0.02006480666805337</v>
+        <v>0.02543725130933246</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.20250548638032</v>
+        <v>9.112632333333332</v>
       </c>
       <c r="N2">
-        <v>3.20250548638032</v>
+        <v>27.337897</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9981738658344552</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9981738658344552</v>
       </c>
       <c r="Q2">
-        <v>13.73405451736358</v>
+        <v>53.5856983946691</v>
       </c>
       <c r="R2">
-        <v>13.73405451736358</v>
+        <v>482.2712855520219</v>
       </c>
       <c r="S2">
-        <v>0.02006480666805337</v>
+        <v>0.02503877222027851</v>
       </c>
       <c r="T2">
-        <v>0.02006480666805337</v>
+        <v>0.02539079947563894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>107.233229744918</v>
+        <v>5.880375333333333</v>
       </c>
       <c r="H3">
-        <v>107.233229744918</v>
+        <v>17.641126</v>
       </c>
       <c r="I3">
-        <v>0.5017131470704511</v>
+        <v>0.02508458002889762</v>
       </c>
       <c r="J3">
-        <v>0.5017131470704511</v>
+        <v>0.02543725130933246</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.20250548638032</v>
+        <v>0.01667133333333333</v>
       </c>
       <c r="N3">
-        <v>3.20250548638032</v>
+        <v>0.050014</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.001826134165544791</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.001826134165544791</v>
       </c>
       <c r="Q3">
-        <v>343.4150065803813</v>
+        <v>0.0980336973071111</v>
       </c>
       <c r="R3">
-        <v>343.4150065803813</v>
+        <v>0.882303275764</v>
       </c>
       <c r="S3">
-        <v>0.5017131470704511</v>
+        <v>4.58078086191125E-05</v>
       </c>
       <c r="T3">
-        <v>0.5017131470704511</v>
+        <v>4.645183369352097E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>64.19542882532581</v>
+        <v>111.7222593333333</v>
       </c>
       <c r="H4">
-        <v>64.19542882532581</v>
+        <v>335.166778</v>
       </c>
       <c r="I4">
-        <v>0.3003517724879283</v>
+        <v>0.4765862375093723</v>
       </c>
       <c r="J4">
-        <v>0.3003517724879283</v>
+        <v>0.483286699642939</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.20250548638032</v>
+        <v>9.112632333333332</v>
       </c>
       <c r="N4">
-        <v>3.20250548638032</v>
+        <v>27.337897</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9981738658344552</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9981738658344552</v>
       </c>
       <c r="Q4">
-        <v>205.5862130136432</v>
+        <v>1018.083872753985</v>
       </c>
       <c r="R4">
-        <v>205.5862130136432</v>
+        <v>9162.754854785866</v>
       </c>
       <c r="S4">
-        <v>0.3003517724879283</v>
+        <v>0.475715927098228</v>
       </c>
       <c r="T4">
-        <v>0.3003517724879283</v>
+        <v>0.4824041532889677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.3055226995277</v>
+        <v>111.7222593333333</v>
       </c>
       <c r="H5">
-        <v>28.3055226995277</v>
+        <v>335.166778</v>
       </c>
       <c r="I5">
-        <v>0.1324333222717947</v>
+        <v>0.4765862375093723</v>
       </c>
       <c r="J5">
-        <v>0.1324333222717947</v>
+        <v>0.483286699642939</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.20250548638032</v>
+        <v>0.01667133333333333</v>
       </c>
       <c r="N5">
-        <v>3.20250548638032</v>
+        <v>0.050014</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.001826134165544791</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.001826134165544791</v>
       </c>
       <c r="Q5">
-        <v>90.64859174010014</v>
+        <v>1.862559026099111</v>
       </c>
       <c r="R5">
-        <v>90.64859174010014</v>
+        <v>16.763031234892</v>
       </c>
       <c r="S5">
-        <v>0.1324333222717947</v>
+        <v>0.0008703104111443094</v>
       </c>
       <c r="T5">
-        <v>0.1324333222717947</v>
+        <v>0.0008825463539713545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,52 +782,362 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.711427910048551</v>
+        <v>67.60291833333333</v>
       </c>
       <c r="H6">
-        <v>9.711427910048551</v>
+        <v>202.808755</v>
       </c>
       <c r="I6">
-        <v>0.04543695150177254</v>
+        <v>0.288381390471254</v>
       </c>
       <c r="J6">
-        <v>0.04543695150177254</v>
+        <v>0.2924358268665977</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.20250548638032</v>
+        <v>9.112632333333332</v>
       </c>
       <c r="N6">
-        <v>3.20250548638032</v>
+        <v>27.337897</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9981738658344552</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9981738658344552</v>
       </c>
       <c r="Q6">
-        <v>31.10090116251745</v>
+        <v>616.0405394320261</v>
       </c>
       <c r="R6">
-        <v>31.10090116251745</v>
+        <v>5544.364854888235</v>
       </c>
       <c r="S6">
-        <v>0.04543695150177254</v>
+        <v>0.2878547673614071</v>
       </c>
       <c r="T6">
-        <v>0.04543695150177254</v>
+        <v>0.2919017998119273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>67.60291833333333</v>
+      </c>
+      <c r="H7">
+        <v>202.808755</v>
+      </c>
+      <c r="I7">
+        <v>0.288381390471254</v>
+      </c>
+      <c r="J7">
+        <v>0.2924358268665977</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.050014</v>
+      </c>
+      <c r="O7">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="P7">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="Q7">
+        <v>1.127030785841111</v>
+      </c>
+      <c r="R7">
+        <v>10.14327707257</v>
+      </c>
+      <c r="S7">
+        <v>0.00052662310984687</v>
+      </c>
+      <c r="T7">
+        <v>0.0005340270546704353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>39.46603233333334</v>
+      </c>
+      <c r="H8">
+        <v>118.398097</v>
+      </c>
+      <c r="I8">
+        <v>0.1683547036320518</v>
+      </c>
+      <c r="J8">
+        <v>0.1707216505304549</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>9.112632333333332</v>
+      </c>
+      <c r="N8">
+        <v>27.337897</v>
+      </c>
+      <c r="O8">
+        <v>0.9981738658344552</v>
+      </c>
+      <c r="P8">
+        <v>0.9981738658344552</v>
+      </c>
+      <c r="Q8">
+        <v>359.6394423091121</v>
+      </c>
+      <c r="R8">
+        <v>3236.754980782009</v>
+      </c>
+      <c r="S8">
+        <v>0.1680472653558192</v>
+      </c>
+      <c r="T8">
+        <v>0.170409889891623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>39.46603233333334</v>
+      </c>
+      <c r="H9">
+        <v>118.398097</v>
+      </c>
+      <c r="I9">
+        <v>0.1683547036320518</v>
+      </c>
+      <c r="J9">
+        <v>0.1707216505304549</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.050014</v>
+      </c>
+      <c r="O9">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="P9">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="Q9">
+        <v>0.6579513803731112</v>
+      </c>
+      <c r="R9">
+        <v>5.921562423358001</v>
+      </c>
+      <c r="S9">
+        <v>0.0003074382762326576</v>
+      </c>
+      <c r="T9">
+        <v>0.0003117606388318617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.7503315</v>
+      </c>
+      <c r="H10">
+        <v>19.500663</v>
+      </c>
+      <c r="I10">
+        <v>0.04159308835842419</v>
+      </c>
+      <c r="J10">
+        <v>0.02811857165067587</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.112632333333332</v>
+      </c>
+      <c r="N10">
+        <v>27.337897</v>
+      </c>
+      <c r="O10">
+        <v>0.9981738658344552</v>
+      </c>
+      <c r="P10">
+        <v>0.9981738658344552</v>
+      </c>
+      <c r="Q10">
+        <v>88.85118608761849</v>
+      </c>
+      <c r="R10">
+        <v>533.1071165257109</v>
+      </c>
+      <c r="S10">
+        <v>0.04151713379872234</v>
+      </c>
+      <c r="T10">
+        <v>0.02806722336629825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9.7503315</v>
+      </c>
+      <c r="H11">
+        <v>19.500663</v>
+      </c>
+      <c r="I11">
+        <v>0.04159308835842419</v>
+      </c>
+      <c r="J11">
+        <v>0.02811857165067587</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.050014</v>
+      </c>
+      <c r="O11">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="P11">
+        <v>0.001826134165544791</v>
+      </c>
+      <c r="Q11">
+        <v>0.162551026547</v>
+      </c>
+      <c r="R11">
+        <v>0.975306159282</v>
+      </c>
+      <c r="S11">
+        <v>7.595455970184173E-05</v>
+      </c>
+      <c r="T11">
+        <v>5.134828437761839E-05</v>
       </c>
     </row>
   </sheetData>
